--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/政府部门/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/政府部门/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,779 +538,469 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>-23.07</v>
+        <v>9.499599999999999</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>-1068.6</v>
+        <v>5619.04087842561</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>2024.82</v>
+        <v>19487.3280971822</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-22.86</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>195.01</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-11.2775936630272</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-271.365664433557</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>1999.61</v>
+        <v>19539.3431784256</v>
       </c>
       <c r="T2" t="n">
-        <v>20.72</v>
+        <v>130.14873934</v>
       </c>
       <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>100.4119055956</v>
+        <v>-16</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>-1752</v>
+        <v>10178</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>2898.3244098359</v>
+        <v>19763</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>13.76228</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-35</v>
+      </c>
+      <c r="P3" t="n">
+        <v>416</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>3044.3</v>
+        <v>20363</v>
       </c>
       <c r="T3" t="n">
-        <v>31.78460522424</v>
+        <v>123</v>
       </c>
       <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>-53.453130437</v>
+        <v>1068</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-540.465631508257</v>
+        <v>5899</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>3762.1456326506</v>
+        <v>20569</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>114.2965173767</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>505</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-19</v>
+      </c>
+      <c r="P4" t="n">
+        <v>142</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>3872.34830729009</v>
+        <v>22344</v>
       </c>
       <c r="T4" t="n">
-        <v>49.359287699788</v>
+        <v>78</v>
       </c>
       <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>30.616235869</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>94.9300079145645</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.02406041878122</v>
+      </c>
       <c r="F5" t="n">
-        <v>-2429.68658246211</v>
+        <v>15809.2389408841</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>2244.55033849388</v>
+        <v>36596.5782885309</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-122.8667000001</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>-563.17377739728</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-58.1707052562</v>
+      </c>
+      <c r="P5" t="n">
+        <v>253.39291</v>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2186.85897949994</v>
+        <v>36401.8406143752</v>
       </c>
       <c r="T5" t="n">
-        <v>34.5591051371626</v>
+        <v>78.30795100201</v>
       </c>
       <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>241.4658087934</v>
+        <v>-793</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>3310.66533904</v>
+        <v>20393</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>7937.11197103217</v>
+        <v>31870</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>-30.7426047156</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>4174</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1603</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3007</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>8199.4948179083</v>
+        <v>39895</v>
       </c>
       <c r="T6" t="n">
-        <v>51.65964279833</v>
+        <v>34</v>
       </c>
       <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>422</v>
+        <v>32063.9199959129</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>4687</v>
+        <v>11507.9057966212</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>8582</v>
+        <v>23972.1836146603</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>-118</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+        <v>4092.6851901</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1837.22012967476</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3876.0289</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>8946</v>
+        <v>65901.17961488799</v>
       </c>
       <c r="T7" t="n">
-        <v>60</v>
+        <v>59.14178454</v>
       </c>
       <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>923</v>
+        <v>601.365649513497</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-6540</v>
+        <v>-8083.70126602385</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>12957</v>
+        <v>31936.1705334474</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>257</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+        <v>2469.86219241729</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1049.76126278752</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1981.60686</v>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>14204</v>
+        <v>36040.9909156307</v>
       </c>
       <c r="T8" t="n">
-        <v>67</v>
+        <v>101.746943039968</v>
       </c>
       <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>909</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>5731</v>
+        <v>36038</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>-770</v>
+      </c>
       <c r="P9" t="n">
-        <v>44</v>
+        <v>3645</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>5858</v>
+        <v>42914</v>
       </c>
       <c r="T9" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>664.997778559141</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>8264</v>
+        <v>-46515.4870774995</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>19591</v>
+        <v>16168.2984000165</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>-40</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>-64.16183231371851</v>
+      </c>
       <c r="P10" t="n">
-        <v>-1</v>
+        <v>980.751306632018</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>19651</v>
+        <v>19147.1912143309</v>
       </c>
       <c r="T10" t="n">
-        <v>81</v>
+        <v>51.256310175142</v>
       </c>
       <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>9.499599999999999</v>
+        <v>266.594821817904</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5619.04087842561</v>
+        <v>-54650.8522648054</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>19487.3280971822</v>
+        <v>8456.043211656321</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>195.01</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-11.2775936630272</v>
+        <v>243.4704573343</v>
       </c>
       <c r="P11" t="n">
-        <v>-271.365664433557</v>
+        <v>373.8399</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>19539.3431784256</v>
+        <v>9648.871418593821</v>
       </c>
       <c r="T11" t="n">
-        <v>130.14873934</v>
+        <v>79.62020590674599</v>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>-16</v>
+        <v>244.671454060039</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>10178</v>
+        <v>-83238.466372371</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>19763</v>
+        <v>1864.2639267187</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>112</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-35</v>
+        <v>162.664167643747</v>
       </c>
       <c r="P12" t="n">
-        <v>416</v>
+        <v>1105.8048</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>20363</v>
+        <v>5222.71473025964</v>
       </c>
       <c r="T12" t="n">
-        <v>123</v>
+        <v>142.501189545156</v>
       </c>
       <c r="U12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>1068</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>5899</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>20569</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>505</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-19</v>
-      </c>
-      <c r="P13" t="n">
-        <v>142</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>22344</v>
-      </c>
-      <c r="T13" t="n">
-        <v>78</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>94.9300079145645</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.02406041878122</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15809.2389408841</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>36596.5782885309</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>-563.17377739728</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-58.1707052562</v>
-      </c>
-      <c r="P14" t="n">
-        <v>253.39291</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>36401.8406143752</v>
-      </c>
-      <c r="T14" t="n">
-        <v>78.30795100201</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>-793</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>20393</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>31870</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>4174</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1603</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3007</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>39895</v>
-      </c>
-      <c r="T15" t="n">
-        <v>34</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>32063.9199959129</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>11507.9057966212</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>23972.1836146603</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>4092.6851901</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1837.22012967476</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3876.0289</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>65901.17961488799</v>
-      </c>
-      <c r="T16" t="n">
-        <v>59.14178454</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>601.365649513497</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>-8083.70126602385</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>31936.1705334474</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>2469.86219241729</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-1049.76126278752</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1981.60686</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>36040.9909156307</v>
-      </c>
-      <c r="T17" t="n">
-        <v>101.746943039968</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>909</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>155</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>36038</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>-770</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3645</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>42914</v>
-      </c>
-      <c r="T18" t="n">
-        <v>47</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>664.997778559141</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>-46515.4870774995</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>16168.2984000165</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>-64.16183231371851</v>
-      </c>
-      <c r="P19" t="n">
-        <v>980.751306632018</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>19147.1912143309</v>
-      </c>
-      <c r="T19" t="n">
-        <v>51.256310175142</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>266.594821817904</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>-54650.8522648054</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>8456.043211656321</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>243.4704573343</v>
-      </c>
-      <c r="P20" t="n">
-        <v>373.8399</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>9648.871418593821</v>
-      </c>
-      <c r="T20" t="n">
-        <v>79.62020590674599</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
